--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2510.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2510.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.606308512338388</v>
+        <v>1.616267204284668</v>
       </c>
       <c r="B1">
-        <v>3.676331941560257</v>
+        <v>2.718456983566284</v>
       </c>
       <c r="C1">
-        <v>3.854430454441212</v>
+        <v>3.202774047851562</v>
       </c>
       <c r="D1">
-        <v>2.340726079021978</v>
+        <v>3.477633476257324</v>
       </c>
       <c r="E1">
-        <v>2.625609875891326</v>
+        <v>1.912714719772339</v>
       </c>
     </row>
   </sheetData>
